--- a/Benchmark_Vorlage.xlsx
+++ b/Benchmark_Vorlage.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xris\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scan" sheetId="1" r:id="rId1"/>
     <sheet name="Application" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="17">
   <si>
     <t>Sequentiell</t>
   </si>
@@ -71,11 +66,17 @@
   <si>
     <t>Alle zeiten in Millisekunden</t>
   </si>
+  <si>
+    <t>Nvidia Quadro K600</t>
+  </si>
+  <si>
+    <t>Intel Xeon E5-1620 @ 3,7Ghz (8 CPUs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,10 +115,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -394,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,23 +418,43 @@
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -455,8 +479,32 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>512</v>
       </c>
@@ -481,8 +529,32 @@
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>512</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4096</v>
       </c>
@@ -507,8 +579,32 @@
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>4096</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>16284</v>
       </c>
@@ -533,8 +629,32 @@
       <c r="I7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>16284</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>32768</v>
       </c>
@@ -559,8 +679,32 @@
       <c r="I8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>32768</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>65336</v>
       </c>
@@ -585,8 +729,32 @@
       <c r="I9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>65336</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>262144</v>
       </c>
@@ -611,8 +779,32 @@
       <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="2">
+        <v>262144</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="2">
+        <v>6</v>
+      </c>
+      <c r="S10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -621,8 +813,32 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="2">
+        <v>524288</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="2">
+        <v>9</v>
+      </c>
+      <c r="S11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -631,8 +847,32 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="2">
+        <v>1048576</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -642,7 +882,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -652,7 +892,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -661,8 +901,16 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -705,10 +953,10 @@
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -738,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -887,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,23 +1148,43 @@
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -941,8 +1209,32 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>512</v>
       </c>
@@ -965,8 +1257,32 @@
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>512</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4096</v>
       </c>
@@ -989,8 +1305,32 @@
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>4096</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>16284</v>
       </c>
@@ -1013,8 +1353,32 @@
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>16284</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>32768</v>
       </c>
@@ -1037,8 +1401,32 @@
       <c r="I8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>32768</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>65336</v>
       </c>
@@ -1061,8 +1449,32 @@
       <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>65336</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>262144</v>
       </c>
@@ -1085,8 +1497,32 @@
       <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="2">
+        <v>262144</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1095,8 +1531,32 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="2">
+        <v>524288</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1105,8 +1565,32 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="2">
+        <v>1048576</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1116,7 +1600,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1126,7 +1610,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1136,7 +1620,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1179,10 +1663,10 @@
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
